--- a/docs/sms/sms-other/downloads/Sinch_US_Short_Code_Carrier_Reach_List.xlsx
+++ b/docs/sms/sms-other/downloads/Sinch_US_Short_Code_Carrier_Reach_List.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keehou\Documents\Service Provider Fee List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0EEAABA-530C-4CC0-859B-DB9413373102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C35424-32CF-4D9F-882B-B555413A55AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C343BE4-1638-4E6A-96FD-D63714353867}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27885" windowHeight="16440" xr2:uid="{3C343BE4-1638-4E6A-96FD-D63714353867}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sinch US Short Code Reach" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
   <si>
     <t>Operator</t>
   </si>
@@ -51,42 +51,21 @@
     <t>Alaska DigiTel</t>
   </si>
   <si>
-    <t>ASTAC</t>
-  </si>
-  <si>
     <t>Bluegrass Cellular</t>
   </si>
   <si>
-    <t>Chariton Valley Cellular</t>
-  </si>
-  <si>
     <t>Chat Mobility</t>
   </si>
   <si>
     <t>Claro Puerto Rico</t>
   </si>
   <si>
-    <t>Copper Valley Wireless</t>
-  </si>
-  <si>
     <t>Cordova Wireless</t>
   </si>
   <si>
-    <t>CTC Wireless</t>
-  </si>
-  <si>
-    <t>Cambridge Telephone Company</t>
-  </si>
-  <si>
-    <t>CTCI</t>
-  </si>
-  <si>
     <t>Eagle Tel</t>
   </si>
   <si>
-    <t>Snake River PCS</t>
-  </si>
-  <si>
     <t>Illinois Valley Cellular</t>
   </si>
   <si>
@@ -96,36 +75,18 @@
     <t>James Valley Wireless</t>
   </si>
   <si>
-    <t>BreakAway Wireless</t>
-  </si>
-  <si>
     <t>Nex-Tech Wireless</t>
   </si>
   <si>
     <t>Northwest Missouri Cellular</t>
   </si>
   <si>
-    <t>Nucla-Naturita Telephone Company</t>
-  </si>
-  <si>
     <t>Pine Cellular</t>
   </si>
   <si>
-    <t>Pioneer Cellular</t>
-  </si>
-  <si>
-    <t>SRT Wireless</t>
-  </si>
-  <si>
-    <t>Standing Rock Telecom</t>
-  </si>
-  <si>
     <t>Thumb Cellular</t>
   </si>
   <si>
-    <t>Strata Networks</t>
-  </si>
-  <si>
     <t>Union Wireless</t>
   </si>
   <si>
@@ -144,9 +105,6 @@
     <t>Pinger</t>
   </si>
   <si>
-    <t>Immix; Keystone Wireless; PC Management</t>
-  </si>
-  <si>
     <t>US Short Code Carrier Reach List</t>
   </si>
   <si>
@@ -177,9 +135,6 @@
     <t>BrightlinkIP</t>
   </si>
   <si>
-    <t>Nemont UMTS</t>
-  </si>
-  <si>
     <t>Telnyx</t>
   </si>
   <si>
@@ -201,15 +156,6 @@
     <t>Pine Belt Cellular</t>
   </si>
   <si>
-    <t>Duet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTCI (Panhandle Telephone Coop., Inc) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Star Communications </t>
-  </si>
-  <si>
     <t>AT&amp;T Mobility (includes Cricket Wireless)</t>
   </si>
   <si>
@@ -225,21 +171,12 @@
     <t>East Kentucky Network</t>
   </si>
   <si>
-    <t>ATNI</t>
-  </si>
-  <si>
     <t>Commnet Wireless / Choice Wireless</t>
   </si>
   <si>
-    <t>Smith Bagley</t>
-  </si>
-  <si>
     <t>Digital Communications Consulting</t>
   </si>
   <si>
-    <t>DCC / OTZ Telecommunications</t>
-  </si>
-  <si>
     <t>Enflick</t>
   </si>
   <si>
@@ -249,39 +186,18 @@
     <t>Inteliquent</t>
   </si>
   <si>
-    <t>Layered / Onvoy / UNREAL / FreedomPop</t>
-  </si>
-  <si>
     <t>Limitless Mobile</t>
   </si>
   <si>
-    <t>Nemont CDMA</t>
-  </si>
-  <si>
-    <t>Sagebrush Cellular</t>
-  </si>
-  <si>
-    <t>Textfree</t>
-  </si>
-  <si>
     <t>CellularOne of Northeast Arizona</t>
   </si>
   <si>
-    <t>PTCI / Panhandle</t>
-  </si>
-  <si>
     <t>Alaska Communications Systems, Inc</t>
   </si>
   <si>
     <t>ACS Inc., ACS Wireless Inc.</t>
   </si>
   <si>
-    <t>Cable &amp; Cellular Communications, LLC</t>
-  </si>
-  <si>
-    <t>Mid-Rivers Communications</t>
-  </si>
-  <si>
     <t>Cellone Nation</t>
   </si>
   <si>
@@ -309,30 +225,12 @@
     <t>WCC; Five Star Wireless</t>
   </si>
   <si>
-    <t>Arctic Slope Telephone Cooperative Association</t>
-  </si>
-  <si>
-    <t>Cordova Telephone Cooperative Inc</t>
-  </si>
-  <si>
-    <t>Manti</t>
-  </si>
-  <si>
-    <t>Custer Telephone Cooperative</t>
-  </si>
-  <si>
     <t>IVC</t>
   </si>
   <si>
     <t>SouthernLINC Wireless</t>
   </si>
   <si>
-    <t>SRT Communications</t>
-  </si>
-  <si>
-    <t>SouthernLINC Communications; SouthernLINC Communications (LTE Network)</t>
-  </si>
-  <si>
     <t>Plivo</t>
   </si>
   <si>
@@ -354,7 +252,115 @@
     <t>TSG Global</t>
   </si>
   <si>
-    <t>Flextalk</t>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>MMS</t>
+  </si>
+  <si>
+    <t>SMS DR</t>
+  </si>
+  <si>
+    <t>MMS DR</t>
+  </si>
+  <si>
+    <t>(ASTAC) Arctic Slope Telephone Cooperative Association (via NewCore)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>CSC Wireless</t>
+  </si>
+  <si>
+    <t>ATNi</t>
+  </si>
+  <si>
+    <t>BreakAway Wireless (RINA)</t>
+  </si>
+  <si>
+    <t>Smith Bagley, Inc / NakedMobile</t>
+  </si>
+  <si>
+    <t>Chariton Valley Wireless</t>
+  </si>
+  <si>
+    <t>Copper Valley</t>
+  </si>
+  <si>
+    <t>Cordova Telephone Cooperative Inc (via NewCore)</t>
+  </si>
+  <si>
+    <t>CTC (Cambridge Telephone Company) (RINA)</t>
+  </si>
+  <si>
+    <t>CTCI (Custer Telephone Cooperative) (RINA)</t>
+  </si>
+  <si>
+    <t>DCC / Midwest Network Solutions Hub / OTZ Tel Coop. / OptimERA</t>
+  </si>
+  <si>
+    <t>Duet (via NewCore)</t>
+  </si>
+  <si>
+    <t>GTA Telguam / GTA Wireless / Mpulse / Pulse Wireless</t>
+  </si>
+  <si>
+    <t>Americell</t>
+  </si>
+  <si>
+    <t>Layered / Onvoy / Freedompop</t>
+  </si>
+  <si>
+    <t>Immix / Keystone Wireless</t>
+  </si>
+  <si>
+    <t>Nemont (CDMA) (UMTS)</t>
+  </si>
+  <si>
+    <t>Sagebrush Cellular / Nemont Tel. Coop</t>
+  </si>
+  <si>
+    <t>Nucla-Naturita Tel (RINA)</t>
+  </si>
+  <si>
+    <t>Textfree / Sideline</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>Pioneer Tel. Coop.</t>
+  </si>
+  <si>
+    <t>PTCI (Panhandle Telephone Coop., Inc)  (via NewCore)</t>
+  </si>
+  <si>
+    <t>Silver Star Communications (RINA)</t>
+  </si>
+  <si>
+    <t>Snake River PCS (RINA)</t>
+  </si>
+  <si>
+    <t>SouthernLINC Communications</t>
+  </si>
+  <si>
+    <t>Standing Rock (via NewCore)</t>
+  </si>
+  <si>
+    <t>Strata Networks (RINA)</t>
+  </si>
+  <si>
+    <t>Flextalk / Midori</t>
+  </si>
+  <si>
+    <t>Tychron</t>
+  </si>
+  <si>
+    <t>PTCI / Panhandle Tel. Coop.  (United hosts PTCI's CDMA network)</t>
+  </si>
+  <si>
+    <t>Vitelcom Cellular, Inc</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99D9EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,7 +495,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -492,13 +504,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -506,6 +512,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name=" Task]_x000d__x000a_TaskName=Scan At_x000d__x000a_TaskID=3_x000d__x000a_WorkstationName=SmarTone_x000d__x000a_LastExecuted=0_x000d__x000a_LastSt" xfId="1" xr:uid="{77A9551B-4D54-4E54-B035-7CECAC9A3FC0}"/>
@@ -542,22 +555,22 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>474609</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3721608</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>134112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00646E97-3AC7-4578-ABC1-43179AE8BED1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CE4A6B-7B84-47F0-8E17-40D3C8F95056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -575,7 +588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2808234" cy="895350"/>
+          <a:ext cx="3721608" cy="896112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -886,553 +899,1120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9E70AA-342B-45A6-8DB0-A10AA101925F}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A7:B84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D356CE-5B35-4412-8DEE-1C469C24B695}">
+  <dimension ref="A7:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" s="9"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="9"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="9"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" s="9"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B65" s="2"/>
+      <c r="C65" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" s="9"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="9"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F74" s="9"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="9"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="8"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" s="9"/>
+      <c r="E80" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="9"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:B84">
-    <sortCondition ref="A10:A84"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>